--- a/data/total/Y9999月.xlsx
+++ b/data/total/Y9999月.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEJ Pro\TejPro\DataExport\#1230\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\#tmp\python-\python-webstorm-TEJ-Banking-and-Finance\data\total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61A743EF-00B6-4652-A7C8-78FCBCE904DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9A661-8FA6-4DA1-86A3-484F77614DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -22,214 +22,216 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
   <si>
+    <t>開盤價(元)</t>
+  </si>
+  <si>
+    <t>最高價(元)</t>
+  </si>
+  <si>
+    <t>最低價(元)</t>
+  </si>
+  <si>
+    <t>成交量(百萬股)_月</t>
+  </si>
+  <si>
+    <t>成交值(百萬元)_月</t>
+  </si>
+  <si>
+    <t>報酬率％_月</t>
+  </si>
+  <si>
+    <t>週轉率％_月</t>
+  </si>
+  <si>
+    <t>流通在外股數(千股)</t>
+  </si>
+  <si>
+    <t>市值(百萬元)</t>
+  </si>
+  <si>
+    <t>最後揭示買價</t>
+  </si>
+  <si>
+    <t>最後揭示賣價</t>
+  </si>
+  <si>
+    <t>報酬率-Ln_月</t>
+  </si>
+  <si>
+    <t>市值比重％</t>
+  </si>
+  <si>
+    <t>成交值比重％</t>
+  </si>
+  <si>
+    <t>成交筆數(千筆)</t>
+  </si>
+  <si>
+    <t>本益比-TSE</t>
+  </si>
+  <si>
+    <t>本益比-TEJ</t>
+  </si>
+  <si>
+    <t>股價淨值比-TSE</t>
+  </si>
+  <si>
+    <t>股價淨值比-TEJ</t>
+  </si>
+  <si>
+    <t>股價營收比-TEJ</t>
+  </si>
+  <si>
+    <t>股利殖利率-TSE</t>
+  </si>
+  <si>
+    <t>現金股利率</t>
+  </si>
+  <si>
+    <t>股價漲跌(元)</t>
+  </si>
+  <si>
+    <t>高低價差%</t>
+  </si>
+  <si>
+    <t>市場別</t>
+  </si>
+  <si>
+    <t>該月結束日</t>
+  </si>
+  <si>
+    <t>2022/12</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TSE</t>
+  </si>
+  <si>
+    <t>2022/12/30</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
+    <t>2022/11/30</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>2022/10/31</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/09/30</t>
+  </si>
+  <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2022/08/31</t>
+  </si>
+  <si>
+    <t>2022/07</t>
+  </si>
+  <si>
+    <t>2022/07/29</t>
+  </si>
+  <si>
+    <t>2022/06</t>
+  </si>
+  <si>
+    <t>2022/06/30</t>
+  </si>
+  <si>
+    <t>2022/05</t>
+  </si>
+  <si>
+    <t>2022/05/31</t>
+  </si>
+  <si>
+    <t>2022/04</t>
+  </si>
+  <si>
+    <t>2022/04/29</t>
+  </si>
+  <si>
+    <t>2022/03</t>
+  </si>
+  <si>
+    <t>2022/03/31</t>
+  </si>
+  <si>
+    <t>2022/02</t>
+  </si>
+  <si>
+    <t>2022/02/25</t>
+  </si>
+  <si>
+    <t>2022/01</t>
+  </si>
+  <si>
+    <t>2022/01/26</t>
+  </si>
+  <si>
+    <t>2021/12</t>
+  </si>
+  <si>
+    <t>2021/12/30</t>
+  </si>
+  <si>
+    <t>2021/11</t>
+  </si>
+  <si>
+    <t>2021/11/30</t>
+  </si>
+  <si>
+    <t>2021/10</t>
+  </si>
+  <si>
+    <t>2021/10/29</t>
+  </si>
+  <si>
+    <t>2021/09</t>
+  </si>
+  <si>
+    <t>2021/09/30</t>
+  </si>
+  <si>
+    <t>2021/08</t>
+  </si>
+  <si>
+    <t>2021/08/31</t>
+  </si>
+  <si>
+    <t>2021/07</t>
+  </si>
+  <si>
+    <t>2021/07/30</t>
+  </si>
+  <si>
+    <t>2021/06</t>
+  </si>
+  <si>
+    <t>2021/06/30</t>
+  </si>
+  <si>
+    <t>2021/05</t>
+  </si>
+  <si>
+    <t>2021/05/31</t>
+  </si>
+  <si>
     <t>年月</t>
-  </si>
-  <si>
-    <t>開盤價(元)</t>
-  </si>
-  <si>
-    <t>最高價(元)</t>
-  </si>
-  <si>
-    <t>最低價(元)</t>
-  </si>
-  <si>
-    <t>收盤價(元)</t>
-  </si>
-  <si>
-    <t>成交量(百萬股)_月</t>
-  </si>
-  <si>
-    <t>成交值(百萬元)_月</t>
-  </si>
-  <si>
-    <t>報酬率％_月</t>
-  </si>
-  <si>
-    <t>週轉率％_月</t>
-  </si>
-  <si>
-    <t>流通在外股數(千股)</t>
-  </si>
-  <si>
-    <t>市值(百萬元)</t>
-  </si>
-  <si>
-    <t>最後揭示買價</t>
-  </si>
-  <si>
-    <t>最後揭示賣價</t>
-  </si>
-  <si>
-    <t>報酬率-Ln_月</t>
-  </si>
-  <si>
-    <t>市值比重％</t>
-  </si>
-  <si>
-    <t>成交值比重％</t>
-  </si>
-  <si>
-    <t>成交筆數(千筆)</t>
-  </si>
-  <si>
-    <t>本益比-TSE</t>
-  </si>
-  <si>
-    <t>本益比-TEJ</t>
-  </si>
-  <si>
-    <t>股價淨值比-TSE</t>
-  </si>
-  <si>
-    <t>股價淨值比-TEJ</t>
-  </si>
-  <si>
-    <t>股價營收比-TEJ</t>
-  </si>
-  <si>
-    <t>股利殖利率-TSE</t>
-  </si>
-  <si>
-    <t>現金股利率</t>
-  </si>
-  <si>
-    <t>股價漲跌(元)</t>
-  </si>
-  <si>
-    <t>高低價差%</t>
-  </si>
-  <si>
-    <t>市場別</t>
-  </si>
-  <si>
-    <t>該月結束日</t>
-  </si>
-  <si>
-    <t>2022/12</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TSE</t>
-  </si>
-  <si>
-    <t>2022/12/30</t>
-  </si>
-  <si>
-    <t>2022/11</t>
-  </si>
-  <si>
-    <t>2022/11/30</t>
-  </si>
-  <si>
-    <t>2022/10</t>
-  </si>
-  <si>
-    <t>2022/10/31</t>
-  </si>
-  <si>
-    <t>2022/09</t>
-  </si>
-  <si>
-    <t>2022/09/30</t>
-  </si>
-  <si>
-    <t>2022/08</t>
-  </si>
-  <si>
-    <t>2022/08/31</t>
-  </si>
-  <si>
-    <t>2022/07</t>
-  </si>
-  <si>
-    <t>2022/07/29</t>
-  </si>
-  <si>
-    <t>2022/06</t>
-  </si>
-  <si>
-    <t>2022/06/30</t>
-  </si>
-  <si>
-    <t>2022/05</t>
-  </si>
-  <si>
-    <t>2022/05/31</t>
-  </si>
-  <si>
-    <t>2022/04</t>
-  </si>
-  <si>
-    <t>2022/04/29</t>
-  </si>
-  <si>
-    <t>2022/03</t>
-  </si>
-  <si>
-    <t>2022/03/31</t>
-  </si>
-  <si>
-    <t>2022/02</t>
-  </si>
-  <si>
-    <t>2022/02/25</t>
-  </si>
-  <si>
-    <t>2022/01</t>
-  </si>
-  <si>
-    <t>2022/01/26</t>
-  </si>
-  <si>
-    <t>2021/12</t>
-  </si>
-  <si>
-    <t>2021/12/30</t>
-  </si>
-  <si>
-    <t>2021/11</t>
-  </si>
-  <si>
-    <t>2021/11/30</t>
-  </si>
-  <si>
-    <t>2021/10</t>
-  </si>
-  <si>
-    <t>2021/10/29</t>
-  </si>
-  <si>
-    <t>2021/09</t>
-  </si>
-  <si>
-    <t>2021/09/30</t>
-  </si>
-  <si>
-    <t>2021/08</t>
-  </si>
-  <si>
-    <t>2021/08/31</t>
-  </si>
-  <si>
-    <t>2021/07</t>
-  </si>
-  <si>
-    <t>2021/07/30</t>
-  </si>
-  <si>
-    <t>2021/06</t>
-  </si>
-  <si>
-    <t>2021/06/30</t>
-  </si>
-  <si>
-    <t>2021/05</t>
-  </si>
-  <si>
-    <t>2021/05/31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盤價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,###"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +261,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -291,6 +300,12 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,127 +591,127 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="12.25" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" customWidth="1"/>
-    <col min="21" max="21" width="16.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.375" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" customWidth="1"/>
-    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>15059.92</v>
@@ -729,10 +744,10 @@
         <v>44060006</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3">
         <v>-5.1143999999999998</v>
@@ -747,22 +762,22 @@
         <v>36960</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S2" s="3">
         <v>10.67</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U2" s="3">
         <v>1.81</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X2" s="3">
         <v>4.84</v>
@@ -774,15 +789,15 @@
         <v>7.8681999999999999</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>12933.12</v>
@@ -815,10 +830,10 @@
         <v>46319220</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3">
         <v>13.891400000000001</v>
@@ -833,22 +848,22 @@
         <v>38202</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3" s="3">
         <v>10.98</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U3" s="3">
         <v>1.97</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X3" s="3">
         <v>4.5999999999999996</v>
@@ -860,15 +875,15 @@
         <v>15.531599999999999</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>13359.26</v>
@@ -901,10 +916,10 @@
         <v>40300395</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3">
         <v>-3.6009000000000002</v>
@@ -919,22 +934,22 @@
         <v>32894</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S4" s="3">
         <v>9.56</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U4" s="3">
         <v>1.71</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X4" s="3">
         <v>5.32</v>
@@ -946,15 +961,15 @@
         <v>9.4792000000000005</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>14981</v>
@@ -987,10 +1002,10 @@
         <v>41770362</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" s="3">
         <v>-11.730399999999999</v>
@@ -1005,22 +1020,22 @@
         <v>37922</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S5" s="3">
         <v>10.14</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U5" s="3">
         <v>1.65</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X5" s="3">
         <v>5.15</v>
@@ -1032,15 +1047,15 @@
         <v>11.3033</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <v>14982.27</v>
@@ -1073,10 +1088,10 @@
         <v>46976034</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N6" s="3">
         <v>0.63400000000000001</v>
@@ -1091,22 +1106,22 @@
         <v>40298</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S6" s="3">
         <v>11.39</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U6" s="3">
         <v>1.86</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X6" s="3">
         <v>4.58</v>
@@ -1118,15 +1133,15 @@
         <v>6.2012999999999998</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3">
         <v>14812.13</v>
@@ -1159,10 +1174,10 @@
         <v>46456410</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" s="3">
         <v>1.169</v>
@@ -1177,22 +1192,22 @@
         <v>40732</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S7" s="3">
         <v>11.33</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U7" s="3">
         <v>1.85</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X7" s="3">
         <v>4.68</v>
@@ -1204,15 +1219,15 @@
         <v>7.4641000000000002</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3">
         <v>16718.91</v>
@@ -1245,10 +1260,10 @@
         <v>45865305</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8" s="3">
         <v>-12.547499999999999</v>
@@ -1263,22 +1278,22 @@
         <v>40325</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S8" s="3">
         <v>11.18</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U8" s="3">
         <v>1.83</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X8" s="3">
         <v>4.7300000000000004</v>
@@ -1290,15 +1305,15 @@
         <v>11.8119</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
         <v>16593.21</v>
@@ -1331,10 +1346,10 @@
         <v>51954632</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N9" s="3">
         <v>1.2908999999999999</v>
@@ -1349,22 +1364,22 @@
         <v>39729</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S9" s="3">
         <v>14.53</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U9" s="3">
         <v>2.2200000000000002</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X9" s="3">
         <v>4.18</v>
@@ -1376,15 +1391,15 @@
         <v>7.1786000000000003</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3">
         <v>17657.759999999998</v>
@@ -1417,10 +1432,10 @@
         <v>51289133</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N10" s="3">
         <v>-6.4264999999999999</v>
@@ -1435,22 +1450,22 @@
         <v>45056</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S10" s="3">
         <v>14.34</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U10" s="3">
         <v>2.19</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X10" s="3">
         <v>4.1500000000000004</v>
@@ -1462,15 +1477,15 @@
         <v>8.1293000000000006</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>17657.5</v>
@@ -1503,10 +1518,10 @@
         <v>54683157</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11" s="3">
         <v>0.23380000000000001</v>
@@ -1521,22 +1536,22 @@
         <v>56004</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" s="3">
         <v>15.28</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U11" s="3">
         <v>2.33</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X11" s="3">
         <v>3.81</v>
@@ -1548,15 +1563,15 @@
         <v>7.1449999999999996</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3">
         <v>17750.7</v>
@@ -1589,10 +1604,10 @@
         <v>54424591</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N12" s="3">
         <v>-0.12570000000000001</v>
@@ -1607,22 +1622,22 @@
         <v>37220</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S12" s="3">
         <v>15.24</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U12" s="3">
         <v>2.3199999999999998</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X12" s="3">
         <v>2.81</v>
@@ -1634,15 +1649,15 @@
         <v>4.4306000000000001</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>18260.23</v>
@@ -1675,10 +1690,10 @@
         <v>54210775</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N13" s="3">
         <v>-3.0339999999999998</v>
@@ -1693,22 +1708,22 @@
         <v>39764</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S13" s="3">
         <v>15.23</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U13" s="3">
         <v>2.3199999999999998</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X13" s="3">
         <v>2.6</v>
@@ -1720,15 +1735,15 @@
         <v>5.4151999999999996</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>17428.61</v>
@@ -1761,10 +1776,10 @@
         <v>55843343</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N14" s="3">
         <v>4.4390999999999998</v>
@@ -1779,22 +1794,22 @@
         <v>49828</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S14" s="3">
         <v>15.68</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U14" s="3">
         <v>2.39</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X14" s="3">
         <v>2.52</v>
@@ -1806,15 +1821,15 @@
         <v>5.2598000000000003</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>17021.77</v>
@@ -1847,10 +1862,10 @@
         <v>53502251</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N15" s="3">
         <v>2.5590000000000002</v>
@@ -1865,22 +1880,22 @@
         <v>58259</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S15" s="3">
         <v>16.670000000000002</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U15" s="3">
         <v>2.33</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X15" s="3">
         <v>2.65</v>
@@ -1892,15 +1907,15 @@
         <v>5.6772</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3">
         <v>16883</v>
@@ -1933,10 +1948,10 @@
         <v>52100048</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N16" s="3">
         <v>0.31019999999999998</v>
@@ -1951,22 +1966,22 @@
         <v>42136</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S16" s="3">
         <v>16.25</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U16" s="3">
         <v>2.27</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X16" s="3">
         <v>2.71</v>
@@ -1978,15 +1993,15 @@
         <v>5.5666000000000002</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
         <v>17463.8</v>
@@ -2019,10 +2034,10 @@
         <v>51909713</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17" s="3">
         <v>-3.2277</v>
@@ -2037,22 +2052,22 @@
         <v>41209</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S17" s="3">
         <v>18.88</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U17" s="3">
         <v>2.31</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X17" s="3">
         <v>2.73</v>
@@ -2064,15 +2079,15 @@
         <v>4.9539999999999997</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3">
         <v>17256.61</v>
@@ -2105,10 +2120,10 @@
         <v>53532570</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N18" s="3">
         <v>1.3983000000000001</v>
@@ -2123,22 +2138,22 @@
         <v>53046</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S18" s="3">
         <v>19.47</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U18" s="3">
         <v>2.38</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X18" s="3">
         <v>2.66</v>
@@ -2150,15 +2165,15 @@
         <v>8.0932999999999993</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3">
         <v>17801.189999999999</v>
@@ -2191,10 +2206,10 @@
         <v>52756021</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N19" s="3">
         <v>-2.9030999999999998</v>
@@ -2209,22 +2224,22 @@
         <v>77018</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S19" s="3">
         <v>19.18</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U19" s="3">
         <v>2.35</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X19" s="3">
         <v>2.68</v>
@@ -2236,15 +2251,15 @@
         <v>6.4233000000000002</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>17098.490000000002</v>
@@ -2277,10 +2292,10 @@
         <v>54301660</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N20" s="3">
         <v>3.9462000000000002</v>
@@ -2295,22 +2310,22 @@
         <v>69094</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S20" s="3">
         <v>19.78</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U20" s="3">
         <v>2.41</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X20" s="3">
         <v>2.6</v>
@@ -2322,15 +2337,15 @@
         <v>5.9843000000000002</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>17505.52</v>
@@ -2363,10 +2378,10 @@
         <v>52084113</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N21" s="3">
         <v>-2.8772000000000002</v>
@@ -2381,22 +2396,22 @@
         <v>80529</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S21" s="3">
         <v>27.01</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U21" s="3">
         <v>2.5299999999999998</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X21" s="3">
         <v>2.69</v>
@@ -2408,19 +2423,18 @@
         <v>13.588699999999999</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AB21" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AB21 B1:D1 F1:AB1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>